--- a/biology/Zoologie/Circulifer_tenellus/Circulifer_tenellus.xlsx
+++ b/biology/Zoologie/Circulifer_tenellus/Circulifer_tenellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Circulifer tenellus (la cicadelle de la betterave) est une espèce d'insectes hémiptères de la famille des Cicadellidae, originaire du bassin méditerranéen.
 Cet insecte polyphage attaque diverses espèces de plantes, dont la betterave et les agrumes (genre Citrus).
